--- a/merged_data/mothership.xlsx
+++ b/merged_data/mothership.xlsx
@@ -4720,7 +4720,7 @@
     <t>13/02/2020 07:20</t>
   </si>
   <si>
-    <t>Mothership</t>
+    <t>Mothership.sg</t>
   </si>
   <si>
     <t>auto</t>
